--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.47617575426</v>
+        <v>14.586443</v>
       </c>
       <c r="H2">
-        <v>14.47617575426</v>
+        <v>29.172886</v>
       </c>
       <c r="I2">
-        <v>0.07390063410789872</v>
+        <v>0.06269856395935744</v>
       </c>
       <c r="J2">
-        <v>0.07390063410789872</v>
+        <v>0.04278481116285238</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>74.8456388760918</v>
+        <v>75.87285199999999</v>
       </c>
       <c r="N2">
-        <v>74.8456388760918</v>
+        <v>151.745704</v>
       </c>
       <c r="O2">
-        <v>0.2329231300079531</v>
+        <v>0.2226476675113111</v>
       </c>
       <c r="P2">
-        <v>0.2329231300079531</v>
+        <v>0.1627885392821437</v>
       </c>
       <c r="Q2">
-        <v>1083.47862281018</v>
+        <v>1106.715030945436</v>
       </c>
       <c r="R2">
-        <v>1083.47862281018</v>
+        <v>4426.860123781744</v>
       </c>
       <c r="S2">
-        <v>0.01721316700598426</v>
+        <v>0.01395968902185969</v>
       </c>
       <c r="T2">
-        <v>0.01721316700598426</v>
+        <v>0.006964876912663096</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.47617575426</v>
+        <v>14.586443</v>
       </c>
       <c r="H3">
-        <v>14.47617575426</v>
+        <v>29.172886</v>
       </c>
       <c r="I3">
-        <v>0.07390063410789872</v>
+        <v>0.06269856395935744</v>
       </c>
       <c r="J3">
-        <v>0.07390063410789872</v>
+        <v>0.04278481116285238</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.047563048810581</v>
+        <v>8.674770333333333</v>
       </c>
       <c r="N3">
-        <v>8.047563048810581</v>
+        <v>26.024311</v>
       </c>
       <c r="O3">
-        <v>0.02504439273166619</v>
+        <v>0.02545597443619208</v>
       </c>
       <c r="P3">
-        <v>0.02504439273166619</v>
+        <v>0.02791815163027103</v>
       </c>
       <c r="Q3">
-        <v>116.4979370880704</v>
+        <v>126.5340430052577</v>
       </c>
       <c r="R3">
-        <v>116.4979370880704</v>
+        <v>759.2042580315459</v>
       </c>
       <c r="S3">
-        <v>0.001850796503717381</v>
+        <v>0.001596053041335357</v>
       </c>
       <c r="T3">
-        <v>0.001850796503717381</v>
+        <v>0.001194472845517025</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.47617575426</v>
+        <v>14.586443</v>
       </c>
       <c r="H4">
-        <v>14.47617575426</v>
+        <v>29.172886</v>
       </c>
       <c r="I4">
-        <v>0.07390063410789872</v>
+        <v>0.06269856395935744</v>
       </c>
       <c r="J4">
-        <v>0.07390063410789872</v>
+        <v>0.04278481116285238</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>80.8961708965529</v>
+        <v>92.90337233333334</v>
       </c>
       <c r="N4">
-        <v>80.8961708965529</v>
+        <v>278.710117</v>
       </c>
       <c r="O4">
-        <v>0.2517526687437007</v>
+        <v>0.2726234563312783</v>
       </c>
       <c r="P4">
-        <v>0.2517526687437007</v>
+        <v>0.2989924039601503</v>
       </c>
       <c r="Q4">
-        <v>1171.067187745153</v>
+        <v>1355.129745047944</v>
       </c>
       <c r="R4">
-        <v>1171.067187745153</v>
+        <v>8130.778470287663</v>
       </c>
       <c r="S4">
-        <v>0.01860468185851525</v>
+        <v>0.01709309921360774</v>
       </c>
       <c r="T4">
-        <v>0.01860468185851525</v>
+        <v>0.0127923335425623</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.47617575426</v>
+        <v>14.586443</v>
       </c>
       <c r="H5">
-        <v>14.47617575426</v>
+        <v>29.172886</v>
       </c>
       <c r="I5">
-        <v>0.07390063410789872</v>
+        <v>0.06269856395935744</v>
       </c>
       <c r="J5">
-        <v>0.07390063410789872</v>
+        <v>0.04278481116285238</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>108.931639160927</v>
+        <v>113.103447</v>
       </c>
       <c r="N5">
-        <v>108.931639160927</v>
+        <v>339.310341</v>
       </c>
       <c r="O5">
-        <v>0.3390003576863704</v>
+        <v>0.3319002515160389</v>
       </c>
       <c r="P5">
-        <v>0.3390003576863704</v>
+        <v>0.3640026262273368</v>
       </c>
       <c r="Q5">
-        <v>1576.913553693211</v>
+        <v>1649.776982769021</v>
       </c>
       <c r="R5">
-        <v>1576.913553693211</v>
+        <v>9898.661896614127</v>
       </c>
       <c r="S5">
-        <v>0.02505234139582726</v>
+        <v>0.02080966914780519</v>
       </c>
       <c r="T5">
-        <v>0.02505234139582726</v>
+        <v>0.01557378362591894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.47617575426</v>
+        <v>14.586443</v>
       </c>
       <c r="H6">
-        <v>14.47617575426</v>
+        <v>29.172886</v>
       </c>
       <c r="I6">
-        <v>0.07390063410789872</v>
+        <v>0.06269856395935744</v>
       </c>
       <c r="J6">
-        <v>0.07390063410789872</v>
+        <v>0.04278481116285238</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.6186142175516</v>
+        <v>35.932115</v>
       </c>
       <c r="N6">
-        <v>35.6186142175516</v>
+        <v>107.796345</v>
       </c>
       <c r="O6">
-        <v>0.1108467939439026</v>
+        <v>0.1054422152669073</v>
       </c>
       <c r="P6">
-        <v>0.1108467939439026</v>
+        <v>0.1156408984237473</v>
       </c>
       <c r="Q6">
-        <v>515.621319536461</v>
+        <v>524.1217473169451</v>
       </c>
       <c r="R6">
-        <v>515.621319536461</v>
+        <v>3144.73048390167</v>
       </c>
       <c r="S6">
-        <v>0.008191648361281993</v>
+        <v>0.00661107547792852</v>
       </c>
       <c r="T6">
-        <v>0.008191648361281993</v>
+        <v>0.00494767400176262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.47617575426</v>
+        <v>14.586443</v>
       </c>
       <c r="H7">
-        <v>14.47617575426</v>
+        <v>29.172886</v>
       </c>
       <c r="I7">
-        <v>0.07390063410789872</v>
+        <v>0.06269856395935744</v>
       </c>
       <c r="J7">
-        <v>0.07390063410789872</v>
+        <v>0.04278481116285238</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.9923036669549</v>
+        <v>14.2888615</v>
       </c>
       <c r="N7">
-        <v>12.9923036669549</v>
+        <v>28.577723</v>
       </c>
       <c r="O7">
-        <v>0.04043265688640696</v>
+        <v>0.04193043493827243</v>
       </c>
       <c r="P7">
-        <v>0.04043265688640696</v>
+        <v>0.0306573804763509</v>
       </c>
       <c r="Q7">
-        <v>188.0788713355558</v>
+        <v>208.4236638046445</v>
       </c>
       <c r="R7">
-        <v>188.0788713355558</v>
+        <v>833.6946552185781</v>
       </c>
       <c r="S7">
-        <v>0.002987998982572572</v>
+        <v>0.00262897805682095</v>
       </c>
       <c r="T7">
-        <v>0.002987998982572572</v>
+        <v>0.001311670234428391</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.42569978479462</v>
+        <v>1.532647666666667</v>
       </c>
       <c r="H8">
-        <v>1.42569978479462</v>
+        <v>4.597943</v>
       </c>
       <c r="I8">
-        <v>0.007278173457711174</v>
+        <v>0.00658795346855021</v>
       </c>
       <c r="J8">
-        <v>0.007278173457711174</v>
+        <v>0.006743320595451507</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>74.8456388760918</v>
+        <v>75.87285199999999</v>
       </c>
       <c r="N8">
-        <v>74.8456388760918</v>
+        <v>151.745704</v>
       </c>
       <c r="O8">
-        <v>0.2329231300079531</v>
+        <v>0.2226476675113111</v>
       </c>
       <c r="P8">
-        <v>0.2329231300079531</v>
+        <v>0.1627885392821437</v>
       </c>
       <c r="Q8">
-        <v>106.7074112384599</v>
+        <v>116.2863495811453</v>
       </c>
       <c r="R8">
-        <v>106.7074112384599</v>
+        <v>697.7180974868719</v>
       </c>
       <c r="S8">
-        <v>0.001695254942510893</v>
+        <v>0.001466792473445756</v>
       </c>
       <c r="T8">
-        <v>0.001695254942510893</v>
+        <v>0.001097735309644747</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.42569978479462</v>
+        <v>1.532647666666667</v>
       </c>
       <c r="H9">
-        <v>1.42569978479462</v>
+        <v>4.597943</v>
       </c>
       <c r="I9">
-        <v>0.007278173457711174</v>
+        <v>0.00658795346855021</v>
       </c>
       <c r="J9">
-        <v>0.007278173457711174</v>
+        <v>0.006743320595451507</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.047563048810581</v>
+        <v>8.674770333333333</v>
       </c>
       <c r="N9">
-        <v>8.047563048810581</v>
+        <v>26.024311</v>
       </c>
       <c r="O9">
-        <v>0.02504439273166619</v>
+        <v>0.02545597443619208</v>
       </c>
       <c r="P9">
-        <v>0.02504439273166619</v>
+        <v>0.02791815163027103</v>
       </c>
       <c r="Q9">
-        <v>11.47340890681038</v>
+        <v>13.29536651025255</v>
       </c>
       <c r="R9">
-        <v>11.47340890681038</v>
+        <v>119.658298592273</v>
       </c>
       <c r="S9">
-        <v>0.0001822774344441075</v>
+        <v>0.0001677027750822371</v>
       </c>
       <c r="T9">
-        <v>0.0001822774344441075</v>
+        <v>0.0001882610468753447</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.42569978479462</v>
+        <v>1.532647666666667</v>
       </c>
       <c r="H10">
-        <v>1.42569978479462</v>
+        <v>4.597943</v>
       </c>
       <c r="I10">
-        <v>0.007278173457711174</v>
+        <v>0.00658795346855021</v>
       </c>
       <c r="J10">
-        <v>0.007278173457711174</v>
+        <v>0.006743320595451507</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>80.8961708965529</v>
+        <v>92.90337233333334</v>
       </c>
       <c r="N10">
-        <v>80.8961708965529</v>
+        <v>278.710117</v>
       </c>
       <c r="O10">
-        <v>0.2517526687437007</v>
+        <v>0.2726234563312783</v>
       </c>
       <c r="P10">
-        <v>0.2517526687437007</v>
+        <v>0.2989924039601503</v>
       </c>
       <c r="Q10">
-        <v>115.3336534379243</v>
+        <v>142.3881368321479</v>
       </c>
       <c r="R10">
-        <v>115.3336534379243</v>
+        <v>1281.493231489331</v>
       </c>
       <c r="S10">
-        <v>0.001832299591558356</v>
+        <v>0.001796030644745791</v>
       </c>
       <c r="T10">
-        <v>0.001832299591558356</v>
+        <v>0.002016201635508038</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.42569978479462</v>
+        <v>1.532647666666667</v>
       </c>
       <c r="H11">
-        <v>1.42569978479462</v>
+        <v>4.597943</v>
       </c>
       <c r="I11">
-        <v>0.007278173457711174</v>
+        <v>0.00658795346855021</v>
       </c>
       <c r="J11">
-        <v>0.007278173457711174</v>
+        <v>0.006743320595451507</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>108.931639160927</v>
+        <v>113.103447</v>
       </c>
       <c r="N11">
-        <v>108.931639160927</v>
+        <v>339.310341</v>
       </c>
       <c r="O11">
-        <v>0.3390003576863704</v>
+        <v>0.3319002515160389</v>
       </c>
       <c r="P11">
-        <v>0.3390003576863704</v>
+        <v>0.3640026262273368</v>
       </c>
       <c r="Q11">
-        <v>155.3038145090588</v>
+        <v>173.347734136507</v>
       </c>
       <c r="R11">
-        <v>155.3038145090588</v>
+        <v>1560.129607228563</v>
       </c>
       <c r="S11">
-        <v>0.002467303405467536</v>
+        <v>0.002186543413187776</v>
       </c>
       <c r="T11">
-        <v>0.002467303405467536</v>
+        <v>0.002454586406237237</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.42569978479462</v>
+        <v>1.532647666666667</v>
       </c>
       <c r="H12">
-        <v>1.42569978479462</v>
+        <v>4.597943</v>
       </c>
       <c r="I12">
-        <v>0.007278173457711174</v>
+        <v>0.00658795346855021</v>
       </c>
       <c r="J12">
-        <v>0.007278173457711174</v>
+        <v>0.006743320595451507</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.6186142175516</v>
+        <v>35.932115</v>
       </c>
       <c r="N12">
-        <v>35.6186142175516</v>
+        <v>107.796345</v>
       </c>
       <c r="O12">
-        <v>0.1108467939439026</v>
+        <v>0.1054422152669073</v>
       </c>
       <c r="P12">
-        <v>0.1108467939439026</v>
+        <v>0.1156408984237473</v>
       </c>
       <c r="Q12">
-        <v>50.78145062464591</v>
+        <v>55.07127221314834</v>
       </c>
       <c r="R12">
-        <v>50.78145062464591</v>
+        <v>495.641449918335</v>
       </c>
       <c r="S12">
-        <v>0.000806762193554892</v>
+        <v>0.0006946484077992395</v>
       </c>
       <c r="T12">
-        <v>0.000806762193554892</v>
+        <v>0.0007798036520173708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.42569978479462</v>
+        <v>1.532647666666667</v>
       </c>
       <c r="H13">
-        <v>1.42569978479462</v>
+        <v>4.597943</v>
       </c>
       <c r="I13">
-        <v>0.007278173457711174</v>
+        <v>0.00658795346855021</v>
       </c>
       <c r="J13">
-        <v>0.007278173457711174</v>
+        <v>0.006743320595451507</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.9923036669549</v>
+        <v>14.2888615</v>
       </c>
       <c r="N13">
-        <v>12.9923036669549</v>
+        <v>28.577723</v>
       </c>
       <c r="O13">
-        <v>0.04043265688640696</v>
+        <v>0.04193043493827243</v>
       </c>
       <c r="P13">
-        <v>0.04043265688640696</v>
+        <v>0.0306573804763509</v>
       </c>
       <c r="Q13">
-        <v>18.52312454196395</v>
+        <v>21.89979023729817</v>
       </c>
       <c r="R13">
-        <v>18.52312454196395</v>
+        <v>131.398741423789</v>
       </c>
       <c r="S13">
-        <v>0.00029427589017539</v>
+        <v>0.0002762357542894108</v>
       </c>
       <c r="T13">
-        <v>0.00029427589017539</v>
+        <v>0.00020673254516877</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.6807818816916</v>
+        <v>70.92193466666666</v>
       </c>
       <c r="H14">
-        <v>34.6807818816916</v>
+        <v>212.765804</v>
       </c>
       <c r="I14">
-        <v>0.1770448090657178</v>
+        <v>0.3048518036110222</v>
       </c>
       <c r="J14">
-        <v>0.1770448090657178</v>
+        <v>0.3120412819647826</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.8456388760918</v>
+        <v>75.87285199999999</v>
       </c>
       <c r="N14">
-        <v>74.8456388760918</v>
+        <v>151.745704</v>
       </c>
       <c r="O14">
-        <v>0.2329231300079531</v>
+        <v>0.2226476675113111</v>
       </c>
       <c r="P14">
-        <v>0.2329231300079531</v>
+        <v>0.1627885392821437</v>
       </c>
       <c r="Q14">
-        <v>2595.705276657597</v>
+        <v>5381.049452517668</v>
       </c>
       <c r="R14">
-        <v>2595.705276657597</v>
+        <v>32286.29671510601</v>
       </c>
       <c r="S14">
-        <v>0.0412378310792474</v>
+        <v>0.06787454301061036</v>
       </c>
       <c r="T14">
-        <v>0.0412378310792474</v>
+        <v>0.05079674448677451</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.6807818816916</v>
+        <v>70.92193466666666</v>
       </c>
       <c r="H15">
-        <v>34.6807818816916</v>
+        <v>212.765804</v>
       </c>
       <c r="I15">
-        <v>0.1770448090657178</v>
+        <v>0.3048518036110222</v>
       </c>
       <c r="J15">
-        <v>0.1770448090657178</v>
+        <v>0.3120412819647826</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.047563048810581</v>
+        <v>8.674770333333333</v>
       </c>
       <c r="N15">
-        <v>8.047563048810581</v>
+        <v>26.024311</v>
       </c>
       <c r="O15">
-        <v>0.02504439273166619</v>
+        <v>0.02545597443619208</v>
       </c>
       <c r="P15">
-        <v>0.02504439273166619</v>
+        <v>0.02791815163027103</v>
       </c>
       <c r="Q15">
-        <v>279.0957787749608</v>
+        <v>615.2314948290048</v>
       </c>
       <c r="R15">
-        <v>279.0957787749608</v>
+        <v>5537.083453461043</v>
       </c>
       <c r="S15">
-        <v>0.004433979729344691</v>
+        <v>0.007760299719549229</v>
       </c>
       <c r="T15">
-        <v>0.004433979729344691</v>
+        <v>0.008711615824796959</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.6807818816916</v>
+        <v>70.92193466666666</v>
       </c>
       <c r="H16">
-        <v>34.6807818816916</v>
+        <v>212.765804</v>
       </c>
       <c r="I16">
-        <v>0.1770448090657178</v>
+        <v>0.3048518036110222</v>
       </c>
       <c r="J16">
-        <v>0.1770448090657178</v>
+        <v>0.3120412819647826</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>80.8961708965529</v>
+        <v>92.90337233333334</v>
       </c>
       <c r="N16">
-        <v>80.8961708965529</v>
+        <v>278.710117</v>
       </c>
       <c r="O16">
-        <v>0.2517526687437007</v>
+        <v>0.2726234563312783</v>
       </c>
       <c r="P16">
-        <v>0.2517526687437007</v>
+        <v>0.2989924039601503</v>
       </c>
       <c r="Q16">
-        <v>2805.542457927399</v>
+        <v>6588.886902937674</v>
       </c>
       <c r="R16">
-        <v>2805.542457927399</v>
+        <v>59299.98212643906</v>
       </c>
       <c r="S16">
-        <v>0.04457150316951337</v>
+        <v>0.08310975236926092</v>
       </c>
       <c r="T16">
-        <v>0.04457150316951337</v>
+        <v>0.09329797302945744</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.6807818816916</v>
+        <v>70.92193466666666</v>
       </c>
       <c r="H17">
-        <v>34.6807818816916</v>
+        <v>212.765804</v>
       </c>
       <c r="I17">
-        <v>0.1770448090657178</v>
+        <v>0.3048518036110222</v>
       </c>
       <c r="J17">
-        <v>0.1770448090657178</v>
+        <v>0.3120412819647826</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>108.931639160927</v>
+        <v>113.103447</v>
       </c>
       <c r="N17">
-        <v>108.931639160927</v>
+        <v>339.310341</v>
       </c>
       <c r="O17">
-        <v>0.3390003576863704</v>
+        <v>0.3319002515160389</v>
       </c>
       <c r="P17">
-        <v>0.3390003576863704</v>
+        <v>0.3640026262273368</v>
       </c>
       <c r="Q17">
-        <v>3777.834417755244</v>
+        <v>8021.515278708795</v>
       </c>
       <c r="R17">
-        <v>3777.834417755244</v>
+        <v>72193.63750837915</v>
       </c>
       <c r="S17">
-        <v>0.06001825359979348</v>
+        <v>0.1011803902936163</v>
       </c>
       <c r="T17">
-        <v>0.06001825359979348</v>
+        <v>0.1135838461265258</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>34.6807818816916</v>
+        <v>70.92193466666666</v>
       </c>
       <c r="H18">
-        <v>34.6807818816916</v>
+        <v>212.765804</v>
       </c>
       <c r="I18">
-        <v>0.1770448090657178</v>
+        <v>0.3048518036110222</v>
       </c>
       <c r="J18">
-        <v>0.1770448090657178</v>
+        <v>0.3120412819647826</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.6186142175516</v>
+        <v>35.932115</v>
       </c>
       <c r="N18">
-        <v>35.6186142175516</v>
+        <v>107.796345</v>
       </c>
       <c r="O18">
-        <v>0.1108467939439026</v>
+        <v>0.1054422152669073</v>
       </c>
       <c r="P18">
-        <v>0.1108467939439026</v>
+        <v>0.1156408984237473</v>
       </c>
       <c r="Q18">
-        <v>1235.281390607026</v>
+        <v>2548.375112465153</v>
       </c>
       <c r="R18">
-        <v>1235.281390607026</v>
+        <v>22935.37601218638</v>
       </c>
       <c r="S18">
-        <v>0.0196248494693452</v>
+        <v>0.03214424950085833</v>
       </c>
       <c r="T18">
-        <v>0.0196248494693452</v>
+        <v>0.03608473419170531</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>34.6807818816916</v>
+        <v>70.92193466666666</v>
       </c>
       <c r="H19">
-        <v>34.6807818816916</v>
+        <v>212.765804</v>
       </c>
       <c r="I19">
-        <v>0.1770448090657178</v>
+        <v>0.3048518036110222</v>
       </c>
       <c r="J19">
-        <v>0.1770448090657178</v>
+        <v>0.3120412819647826</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.9923036669549</v>
+        <v>14.2888615</v>
       </c>
       <c r="N19">
-        <v>12.9923036669549</v>
+        <v>28.577723</v>
       </c>
       <c r="O19">
-        <v>0.04043265688640696</v>
+        <v>0.04193043493827243</v>
       </c>
       <c r="P19">
-        <v>0.04043265688640696</v>
+        <v>0.0306573804763509</v>
       </c>
       <c r="Q19">
-        <v>450.5832496143648</v>
+        <v>1013.393701764049</v>
       </c>
       <c r="R19">
-        <v>450.5832496143648</v>
+        <v>6080.362210584291</v>
       </c>
       <c r="S19">
-        <v>0.007158392018473599</v>
+        <v>0.01278256871712697</v>
       </c>
       <c r="T19">
-        <v>0.007158392018473599</v>
+        <v>0.009566368305522634</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>134.582976241548</v>
+        <v>134.7221676666666</v>
       </c>
       <c r="H20">
-        <v>134.582976241548</v>
+        <v>404.166503</v>
       </c>
       <c r="I20">
-        <v>0.6870438334828769</v>
+        <v>0.5790915884147887</v>
       </c>
       <c r="J20">
-        <v>0.6870438334828769</v>
+        <v>0.5927486059900076</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>74.8456388760918</v>
+        <v>75.87285199999999</v>
       </c>
       <c r="N20">
-        <v>74.8456388760918</v>
+        <v>151.745704</v>
       </c>
       <c r="O20">
-        <v>0.2329231300079531</v>
+        <v>0.2226476675113111</v>
       </c>
       <c r="P20">
-        <v>0.2329231300079531</v>
+        <v>0.1627885392821437</v>
       </c>
       <c r="Q20">
-        <v>10072.94883864454</v>
+        <v>10221.75508849218</v>
       </c>
       <c r="R20">
-        <v>10072.94883864454</v>
+        <v>61330.5305309531</v>
       </c>
       <c r="S20">
-        <v>0.1600284001474946</v>
+        <v>0.1289333914359729</v>
       </c>
       <c r="T20">
-        <v>0.1600284001474946</v>
+        <v>0.09649267973064028</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>134.582976241548</v>
+        <v>134.7221676666666</v>
       </c>
       <c r="H21">
-        <v>134.582976241548</v>
+        <v>404.166503</v>
       </c>
       <c r="I21">
-        <v>0.6870438334828769</v>
+        <v>0.5790915884147887</v>
       </c>
       <c r="J21">
-        <v>0.6870438334828769</v>
+        <v>0.5927486059900076</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>8.047563048810581</v>
+        <v>8.674770333333333</v>
       </c>
       <c r="N21">
-        <v>8.047563048810581</v>
+        <v>26.024311</v>
       </c>
       <c r="O21">
-        <v>0.02504439273166619</v>
+        <v>0.02545597443619208</v>
       </c>
       <c r="P21">
-        <v>0.02504439273166619</v>
+        <v>0.02791815163027103</v>
       </c>
       <c r="Q21">
-        <v>1083.064986600434</v>
+        <v>1168.683863317159</v>
       </c>
       <c r="R21">
-        <v>1083.064986600434</v>
+        <v>10518.15476985443</v>
       </c>
       <c r="S21">
-        <v>0.01720659558961464</v>
+        <v>0.01474134067090073</v>
       </c>
       <c r="T21">
-        <v>0.01720659558961464</v>
+        <v>0.01654844546066081</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>134.582976241548</v>
+        <v>134.7221676666666</v>
       </c>
       <c r="H22">
-        <v>134.582976241548</v>
+        <v>404.166503</v>
       </c>
       <c r="I22">
-        <v>0.6870438334828769</v>
+        <v>0.5790915884147887</v>
       </c>
       <c r="J22">
-        <v>0.6870438334828769</v>
+        <v>0.5927486059900076</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>80.8961708965529</v>
+        <v>92.90337233333334</v>
       </c>
       <c r="N22">
-        <v>80.8961708965529</v>
+        <v>278.710117</v>
       </c>
       <c r="O22">
-        <v>0.2517526687437007</v>
+        <v>0.2726234563312783</v>
       </c>
       <c r="P22">
-        <v>0.2517526687437007</v>
+        <v>0.2989924039601503</v>
       </c>
       <c r="Q22">
-        <v>10887.24744580299</v>
+        <v>12516.14370429009</v>
       </c>
       <c r="R22">
-        <v>10887.24744580299</v>
+        <v>112645.2933386108</v>
       </c>
       <c r="S22">
-        <v>0.172965118623217</v>
+        <v>0.1578739503660097</v>
       </c>
       <c r="T22">
-        <v>0.172965118623217</v>
+        <v>0.1772273306489803</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>134.582976241548</v>
+        <v>134.7221676666666</v>
       </c>
       <c r="H23">
-        <v>134.582976241548</v>
+        <v>404.166503</v>
       </c>
       <c r="I23">
-        <v>0.6870438334828769</v>
+        <v>0.5790915884147887</v>
       </c>
       <c r="J23">
-        <v>0.6870438334828769</v>
+        <v>0.5927486059900076</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>108.931639160927</v>
+        <v>113.103447</v>
       </c>
       <c r="N23">
-        <v>108.931639160927</v>
+        <v>339.310341</v>
       </c>
       <c r="O23">
-        <v>0.3390003576863704</v>
+        <v>0.3319002515160389</v>
       </c>
       <c r="P23">
-        <v>0.3390003576863704</v>
+        <v>0.3640026262273368</v>
       </c>
       <c r="Q23">
-        <v>14660.34420514792</v>
+        <v>15237.54155041194</v>
       </c>
       <c r="R23">
-        <v>14660.34420514792</v>
+        <v>137137.8739537075</v>
       </c>
       <c r="S23">
-        <v>0.2329081052969104</v>
+        <v>0.1922006438456909</v>
       </c>
       <c r="T23">
-        <v>0.2329081052969104</v>
+        <v>0.2157620492729557</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>134.582976241548</v>
+        <v>134.7221676666666</v>
       </c>
       <c r="H24">
-        <v>134.582976241548</v>
+        <v>404.166503</v>
       </c>
       <c r="I24">
-        <v>0.6870438334828769</v>
+        <v>0.5790915884147887</v>
       </c>
       <c r="J24">
-        <v>0.6870438334828769</v>
+        <v>0.5927486059900076</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.6186142175516</v>
+        <v>35.932115</v>
       </c>
       <c r="N24">
-        <v>35.6186142175516</v>
+        <v>107.796345</v>
       </c>
       <c r="O24">
-        <v>0.1108467939439026</v>
+        <v>0.1054422152669073</v>
       </c>
       <c r="P24">
-        <v>0.1108467939439026</v>
+        <v>0.1156408984237473</v>
       </c>
       <c r="Q24">
-        <v>4793.659110997612</v>
+        <v>4840.852421647948</v>
       </c>
       <c r="R24">
-        <v>4793.659110997612</v>
+        <v>43567.67179483153</v>
       </c>
       <c r="S24">
-        <v>0.07615660624050542</v>
+        <v>0.06106069992488741</v>
       </c>
       <c r="T24">
-        <v>0.07615660624050542</v>
+        <v>0.06854598133610826</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>134.582976241548</v>
+        <v>134.7221676666666</v>
       </c>
       <c r="H25">
-        <v>134.582976241548</v>
+        <v>404.166503</v>
       </c>
       <c r="I25">
-        <v>0.6870438334828769</v>
+        <v>0.5790915884147887</v>
       </c>
       <c r="J25">
-        <v>0.6870438334828769</v>
+        <v>0.5927486059900076</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.9923036669549</v>
+        <v>14.2888615</v>
       </c>
       <c r="N25">
-        <v>12.9923036669549</v>
+        <v>28.577723</v>
       </c>
       <c r="O25">
-        <v>0.04043265688640696</v>
+        <v>0.04193043493827243</v>
       </c>
       <c r="P25">
-        <v>0.04043265688640696</v>
+        <v>0.0306573804763509</v>
       </c>
       <c r="Q25">
-        <v>1748.542895732768</v>
+        <v>1925.026394768778</v>
       </c>
       <c r="R25">
-        <v>1748.542895732768</v>
+        <v>11550.15836861267</v>
       </c>
       <c r="S25">
-        <v>0.02777900758513488</v>
+        <v>0.02428156217132714</v>
       </c>
       <c r="T25">
-        <v>0.02777900758513488</v>
+        <v>0.01817211954066227</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>9.331807563425061</v>
+        <v>9.386765666666667</v>
       </c>
       <c r="H26">
-        <v>9.331807563425061</v>
+        <v>28.160297</v>
       </c>
       <c r="I26">
-        <v>0.04763872088987704</v>
+        <v>0.04034820055328091</v>
       </c>
       <c r="J26">
-        <v>0.04763872088987704</v>
+        <v>0.04129975311441036</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>74.8456388760918</v>
+        <v>75.87285199999999</v>
       </c>
       <c r="N26">
-        <v>74.8456388760918</v>
+        <v>151.745704</v>
       </c>
       <c r="O26">
-        <v>0.2329231300079531</v>
+        <v>0.2226476675113111</v>
       </c>
       <c r="P26">
-        <v>0.2329231300079531</v>
+        <v>0.1627885392821437</v>
       </c>
       <c r="Q26">
-        <v>698.4450989532942</v>
+        <v>712.2006821856813</v>
       </c>
       <c r="R26">
-        <v>698.4450989532942</v>
+        <v>4273.204093114087</v>
       </c>
       <c r="S26">
-        <v>0.01109615997924542</v>
+        <v>0.008983432741466586</v>
       </c>
       <c r="T26">
-        <v>0.01109615997924542</v>
+        <v>0.006723126482208029</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>9.331807563425061</v>
+        <v>9.386765666666667</v>
       </c>
       <c r="H27">
-        <v>9.331807563425061</v>
+        <v>28.160297</v>
       </c>
       <c r="I27">
-        <v>0.04763872088987704</v>
+        <v>0.04034820055328091</v>
       </c>
       <c r="J27">
-        <v>0.04763872088987704</v>
+        <v>0.04129975311441036</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>8.047563048810581</v>
+        <v>8.674770333333333</v>
       </c>
       <c r="N27">
-        <v>8.047563048810581</v>
+        <v>26.024311</v>
       </c>
       <c r="O27">
-        <v>0.02504439273166619</v>
+        <v>0.02545597443619208</v>
       </c>
       <c r="P27">
-        <v>0.02504439273166619</v>
+        <v>0.02791815163027103</v>
       </c>
       <c r="Q27">
-        <v>75.09830972603062</v>
+        <v>81.42803633115189</v>
       </c>
       <c r="R27">
-        <v>75.09830972603062</v>
+        <v>732.8523269803669</v>
       </c>
       <c r="S27">
-        <v>0.001193082835200311</v>
+        <v>0.00102710276183067</v>
       </c>
       <c r="T27">
-        <v>0.001193082835200311</v>
+        <v>0.001153012769740867</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>9.331807563425061</v>
+        <v>9.386765666666667</v>
       </c>
       <c r="H28">
-        <v>9.331807563425061</v>
+        <v>28.160297</v>
       </c>
       <c r="I28">
-        <v>0.04763872088987704</v>
+        <v>0.04034820055328091</v>
       </c>
       <c r="J28">
-        <v>0.04763872088987704</v>
+        <v>0.04129975311441036</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>80.8961708965529</v>
+        <v>92.90337233333334</v>
       </c>
       <c r="N28">
-        <v>80.8961708965529</v>
+        <v>278.710117</v>
       </c>
       <c r="O28">
-        <v>0.2517526687437007</v>
+        <v>0.2726234563312783</v>
       </c>
       <c r="P28">
-        <v>0.2517526687437007</v>
+        <v>0.2989924039601503</v>
       </c>
       <c r="Q28">
-        <v>754.9074994245786</v>
+        <v>872.0621857360833</v>
       </c>
       <c r="R28">
-        <v>754.9074994245786</v>
+        <v>7848.55967162475</v>
       </c>
       <c r="S28">
-        <v>0.01199317511956283</v>
+        <v>0.01099986589158304</v>
       </c>
       <c r="T28">
-        <v>0.01199317511956283</v>
+        <v>0.01234831246663826</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>9.331807563425061</v>
+        <v>9.386765666666667</v>
       </c>
       <c r="H29">
-        <v>9.331807563425061</v>
+        <v>28.160297</v>
       </c>
       <c r="I29">
-        <v>0.04763872088987704</v>
+        <v>0.04034820055328091</v>
       </c>
       <c r="J29">
-        <v>0.04763872088987704</v>
+        <v>0.04129975311441036</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>108.931639160927</v>
+        <v>113.103447</v>
       </c>
       <c r="N29">
-        <v>108.931639160927</v>
+        <v>339.310341</v>
       </c>
       <c r="O29">
-        <v>0.3390003576863704</v>
+        <v>0.3319002515160389</v>
       </c>
       <c r="P29">
-        <v>0.3390003576863704</v>
+        <v>0.3640026262273368</v>
       </c>
       <c r="Q29">
-        <v>1016.529094218228</v>
+        <v>1061.675553081253</v>
       </c>
       <c r="R29">
-        <v>1016.529094218228</v>
+        <v>9555.079977731277</v>
       </c>
       <c r="S29">
-        <v>0.01614954342138948</v>
+        <v>0.01339157791185351</v>
       </c>
       <c r="T29">
-        <v>0.01614954342138948</v>
+        <v>0.015033218596186</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>9.331807563425061</v>
+        <v>9.386765666666667</v>
       </c>
       <c r="H30">
-        <v>9.331807563425061</v>
+        <v>28.160297</v>
       </c>
       <c r="I30">
-        <v>0.04763872088987704</v>
+        <v>0.04034820055328091</v>
       </c>
       <c r="J30">
-        <v>0.04763872088987704</v>
+        <v>0.04129975311441036</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>35.6186142175516</v>
+        <v>35.932115</v>
       </c>
       <c r="N30">
-        <v>35.6186142175516</v>
+        <v>107.796345</v>
       </c>
       <c r="O30">
-        <v>0.1108467939439026</v>
+        <v>0.1054422152669073</v>
       </c>
       <c r="P30">
-        <v>0.1108467939439026</v>
+        <v>0.1156408984237473</v>
       </c>
       <c r="Q30">
-        <v>332.3860535540675</v>
+        <v>337.2863434127184</v>
       </c>
       <c r="R30">
-        <v>332.3860535540675</v>
+        <v>3035.577090714465</v>
       </c>
       <c r="S30">
-        <v>0.005280599478231291</v>
+        <v>0.004254403648371392</v>
       </c>
       <c r="T30">
-        <v>0.005280599478231291</v>
+        <v>0.004775940554829368</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>9.331807563425061</v>
+        <v>9.386765666666667</v>
       </c>
       <c r="H31">
-        <v>9.331807563425061</v>
+        <v>28.160297</v>
       </c>
       <c r="I31">
-        <v>0.04763872088987704</v>
+        <v>0.04034820055328091</v>
       </c>
       <c r="J31">
-        <v>0.04763872088987704</v>
+        <v>0.04129975311441036</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.9923036669549</v>
+        <v>14.2888615</v>
       </c>
       <c r="N31">
-        <v>12.9923036669549</v>
+        <v>28.577723</v>
       </c>
       <c r="O31">
-        <v>0.04043265688640696</v>
+        <v>0.04193043493827243</v>
       </c>
       <c r="P31">
-        <v>0.04043265688640696</v>
+        <v>0.0306573804763509</v>
       </c>
       <c r="Q31">
-        <v>121.2416776256049</v>
+        <v>134.1261945439552</v>
       </c>
       <c r="R31">
-        <v>121.2416776256049</v>
+        <v>804.7571672637309</v>
       </c>
       <c r="S31">
-        <v>0.001926160056247706</v>
+        <v>0.001691817598175713</v>
       </c>
       <c r="T31">
-        <v>0.001926160056247706</v>
+        <v>0.001266142244807836</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.38958909561784</v>
+        <v>1.494014</v>
       </c>
       <c r="H32">
-        <v>1.38958909561784</v>
+        <v>2.988028</v>
       </c>
       <c r="I32">
-        <v>0.007093828995918358</v>
+        <v>0.006421889993000723</v>
       </c>
       <c r="J32">
-        <v>0.007093828995918358</v>
+        <v>0.004382227172495565</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>74.8456388760918</v>
+        <v>75.87285199999999</v>
       </c>
       <c r="N32">
-        <v>74.8456388760918</v>
+        <v>151.745704</v>
       </c>
       <c r="O32">
-        <v>0.2329231300079531</v>
+        <v>0.2226476675113111</v>
       </c>
       <c r="P32">
-        <v>0.2329231300079531</v>
+        <v>0.1627885392821437</v>
       </c>
       <c r="Q32">
-        <v>104.0046836367679</v>
+        <v>113.355103107928</v>
       </c>
       <c r="R32">
-        <v>104.0046836367679</v>
+        <v>453.420412431712</v>
       </c>
       <c r="S32">
-        <v>0.001652316853470479</v>
+        <v>0.001429818827955841</v>
       </c>
       <c r="T32">
-        <v>0.001652316853470479</v>
+        <v>0.000713376360213072</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.38958909561784</v>
+        <v>1.494014</v>
       </c>
       <c r="H33">
-        <v>1.38958909561784</v>
+        <v>2.988028</v>
       </c>
       <c r="I33">
-        <v>0.007093828995918358</v>
+        <v>0.006421889993000723</v>
       </c>
       <c r="J33">
-        <v>0.007093828995918358</v>
+        <v>0.004382227172495565</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>8.047563048810581</v>
+        <v>8.674770333333333</v>
       </c>
       <c r="N33">
-        <v>8.047563048810581</v>
+        <v>26.024311</v>
       </c>
       <c r="O33">
-        <v>0.02504439273166619</v>
+        <v>0.02545597443619208</v>
       </c>
       <c r="P33">
-        <v>0.02504439273166619</v>
+        <v>0.02791815163027103</v>
       </c>
       <c r="Q33">
-        <v>11.18280585892424</v>
+        <v>12.96022832478467</v>
       </c>
       <c r="R33">
-        <v>11.18280585892424</v>
+        <v>77.76136994870799</v>
       </c>
       <c r="S33">
-        <v>0.0001776606393450606</v>
+        <v>0.0001634754674938642</v>
       </c>
       <c r="T33">
-        <v>0.0001776606393450606</v>
+        <v>0.0001223436826800251</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.38958909561784</v>
+        <v>1.494014</v>
       </c>
       <c r="H34">
-        <v>1.38958909561784</v>
+        <v>2.988028</v>
       </c>
       <c r="I34">
-        <v>0.007093828995918358</v>
+        <v>0.006421889993000723</v>
       </c>
       <c r="J34">
-        <v>0.007093828995918358</v>
+        <v>0.004382227172495565</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>80.8961708965529</v>
+        <v>92.90337233333334</v>
       </c>
       <c r="N34">
-        <v>80.8961708965529</v>
+        <v>278.710117</v>
       </c>
       <c r="O34">
-        <v>0.2517526687437007</v>
+        <v>0.2726234563312783</v>
       </c>
       <c r="P34">
-        <v>0.2517526687437007</v>
+        <v>0.2989924039601503</v>
       </c>
       <c r="Q34">
-        <v>112.4124369550872</v>
+        <v>138.7989389132127</v>
       </c>
       <c r="R34">
-        <v>112.4124369550872</v>
+        <v>832.7936334792761</v>
       </c>
       <c r="S34">
-        <v>0.001785890381333893</v>
+        <v>0.001750757846071105</v>
       </c>
       <c r="T34">
-        <v>0.001785890381333893</v>
+        <v>0.001310252637003941</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.38958909561784</v>
+        <v>1.494014</v>
       </c>
       <c r="H35">
-        <v>1.38958909561784</v>
+        <v>2.988028</v>
       </c>
       <c r="I35">
-        <v>0.007093828995918358</v>
+        <v>0.006421889993000723</v>
       </c>
       <c r="J35">
-        <v>0.007093828995918358</v>
+        <v>0.004382227172495565</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>108.931639160927</v>
+        <v>113.103447</v>
       </c>
       <c r="N35">
-        <v>108.931639160927</v>
+        <v>339.310341</v>
       </c>
       <c r="O35">
-        <v>0.3390003576863704</v>
+        <v>0.3319002515160389</v>
       </c>
       <c r="P35">
-        <v>0.3390003576863704</v>
+        <v>0.3640026262273368</v>
       </c>
       <c r="Q35">
-        <v>151.3702179458014</v>
+        <v>168.978133266258</v>
       </c>
       <c r="R35">
-        <v>151.3702179458014</v>
+        <v>1013.868799597548</v>
       </c>
       <c r="S35">
-        <v>0.00240481056698227</v>
+        <v>0.002131426903885273</v>
       </c>
       <c r="T35">
-        <v>0.00240481056698227</v>
+        <v>0.001595142199513182</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.38958909561784</v>
+        <v>1.494014</v>
       </c>
       <c r="H36">
-        <v>1.38958909561784</v>
+        <v>2.988028</v>
       </c>
       <c r="I36">
-        <v>0.007093828995918358</v>
+        <v>0.006421889993000723</v>
       </c>
       <c r="J36">
-        <v>0.007093828995918358</v>
+        <v>0.004382227172495565</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>35.6186142175516</v>
+        <v>35.932115</v>
       </c>
       <c r="N36">
-        <v>35.6186142175516</v>
+        <v>107.796345</v>
       </c>
       <c r="O36">
-        <v>0.1108467939439026</v>
+        <v>0.1054422152669073</v>
       </c>
       <c r="P36">
-        <v>0.1108467939439026</v>
+        <v>0.1156408984237473</v>
       </c>
       <c r="Q36">
-        <v>49.49523791772827</v>
+        <v>53.68308285961</v>
       </c>
       <c r="R36">
-        <v>49.49523791772827</v>
+        <v>322.09849715766</v>
       </c>
       <c r="S36">
-        <v>0.000786328200983844</v>
+        <v>0.0006771383070623797</v>
       </c>
       <c r="T36">
-        <v>0.000786328200983844</v>
+        <v>0.0005067646873243449</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.38958909561784</v>
+        <v>1.494014</v>
       </c>
       <c r="H37">
-        <v>1.38958909561784</v>
+        <v>2.988028</v>
       </c>
       <c r="I37">
-        <v>0.007093828995918358</v>
+        <v>0.006421889993000723</v>
       </c>
       <c r="J37">
-        <v>0.007093828995918358</v>
+        <v>0.004382227172495565</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.9923036669549</v>
+        <v>14.2888615</v>
       </c>
       <c r="N37">
-        <v>12.9923036669549</v>
+        <v>28.577723</v>
       </c>
       <c r="O37">
-        <v>0.04043265688640696</v>
+        <v>0.04193043493827243</v>
       </c>
       <c r="P37">
-        <v>0.04043265688640696</v>
+        <v>0.0306573804763509</v>
       </c>
       <c r="Q37">
-        <v>18.05396350255621</v>
+        <v>21.347759125061</v>
       </c>
       <c r="R37">
-        <v>18.05396350255621</v>
+        <v>85.391036500244</v>
       </c>
       <c r="S37">
-        <v>0.0002868223538028118</v>
+        <v>0.0002692726405322596</v>
       </c>
       <c r="T37">
-        <v>0.0002868223538028118</v>
+        <v>0.0001343476057609999</v>
       </c>
     </row>
   </sheetData>
